--- a/data/TC004_DeleteLead.xlsx
+++ b/data/TC004_DeleteLead.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamun\Selenium\POMframework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamun\git\POMFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE742A5A-39FE-4AF4-8196-AA15EEF5D469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BEF98B-B1D3-492F-8AE6-FD74151D886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{714707E7-C07D-48C5-BBE0-40299AC6D97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,13 +86,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,18 +417,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -450,11 +449,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>2084048</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10109</v>
+      <c r="C2" s="3">
+        <v>6822084048</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10158</v>
       </c>
     </row>
   </sheetData>
